--- a/05b.xlsx
+++ b/05b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6645AA3D-13B1-4EF9-9203-50CA2507CD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9669D24-F118-46C8-8668-0F77CC8FD21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8295" yWindow="4560" windowWidth="28230" windowHeight="15098" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>k</t>
     <phoneticPr fontId="1"/>
@@ -77,40 +77,6 @@
   </si>
   <si>
     <t>F(k)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>負の二構分布の確率質量関数と累積分布関数</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シツリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ルイセキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ブンプ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -223,6 +189,65 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>負の二項分布の確率質量関数と累積分布関数</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負の二項分布の確率質量関数と累積分布関数</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シツリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,15 +359,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,7 +399,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>負の二構分布の確率質量関数と累積分布関数</c:v>
+              <c:v>負の二項分布の確率質量関数と累積分布関数</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -897,7 +913,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>負の二構分布の確率質量関数と累積分布関数</c:v>
+              <c:v>負の二項分布の確率質量関数と累積分布関数</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1701,6 +1717,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1820526287"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1759,6 +1776,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1820525807"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -4994,7 +5012,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5009,7 +5027,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -5072,49 +5090,37 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A15" s="9">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" s="3"/>
@@ -5139,7 +5145,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5154,7 +5160,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -5273,73 +5279,73 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A15" s="9">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>4.6927928924560547E-2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>0.80290269851684559</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>3.8715541362762451E-2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>0.84161823987960815</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>3.1676352024078383E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>0.87329459190368652</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>2.5737036019563675E-2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>0.8990316279232502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>2.078760601580143E-2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>0.91981923393905163</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>1.6704326262697584E-2</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>0.93652356020174921</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" s="3">
@@ -5362,14 +5368,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5384,7 +5390,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -5511,10 +5517,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A15" s="9">
+      <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>4.6927928924560547E-2</v>
       </c>
       <c r="C15">
@@ -5523,10 +5529,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>3.8715541362762451E-2</v>
       </c>
       <c r="C16">
@@ -5535,10 +5541,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>3.1676352024078369E-2</v>
       </c>
       <c r="C17">
@@ -5547,10 +5553,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>2.5737036019563675E-2</v>
       </c>
       <c r="C18">
@@ -5559,10 +5565,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>2.078760601580143E-2</v>
       </c>
       <c r="C19">
@@ -5571,10 +5577,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>1.6704326262697577E-2</v>
       </c>
       <c r="C20">
@@ -5583,7 +5589,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
       <c r="B21" s="3">
@@ -5606,9 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7162ED7-6AF5-4AF3-834D-F104125B4927}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -5617,7 +5621,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5632,7 +5636,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -5643,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
@@ -5754,10 +5758,10 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>1.8771171569824219E-2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>1.8771171569824233E-2</v>
       </c>
     </row>
@@ -5765,10 +5769,10 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>1.4078378677368164E-2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>1.4078378677368173E-2</v>
       </c>
     </row>
@@ -5776,10 +5780,10 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>1.0558784008026123E-2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>1.0558784008026125E-2</v>
       </c>
     </row>
@@ -5787,10 +5791,10 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>7.9190880060195923E-3</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>7.919088006019594E-3</v>
       </c>
     </row>
@@ -5798,10 +5802,10 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>5.9393160045146942E-3</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>5.9393160045146951E-3</v>
       </c>
     </row>
@@ -5809,10 +5813,10 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>4.4544870033860207E-3</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>4.4544870033860215E-3</v>
       </c>
     </row>
@@ -5829,7 +5833,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5855,7 +5859,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5863,13 +5867,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>375</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5">
         <v>26</v>
@@ -5884,7 +5888,7 @@
         <v>6.933333333333333E-2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
         <v>50</v>
@@ -5975,7 +5979,7 @@
       <c r="A16">
         <v>680</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>0.55634631986588667</v>
       </c>
     </row>
@@ -5983,7 +5987,7 @@
       <c r="A17">
         <v>700</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>0.63352530843022448</v>
       </c>
     </row>
@@ -5991,7 +5995,7 @@
       <c r="A18">
         <v>720</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>0.70439105272993152</v>
       </c>
     </row>
@@ -5999,7 +6003,7 @@
       <c r="A19">
         <v>740</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>0.76714661502805104</v>
       </c>
     </row>
@@ -6007,7 +6011,7 @@
       <c r="A20">
         <v>760</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>0.82084544762943001</v>
       </c>
     </row>
@@ -6015,15 +6019,15 @@
       <c r="A21">
         <v>780</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>0.86532191116027413</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.7">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>800</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>0.90103673275195106</v>
       </c>
     </row>
